--- a/exercicio-9/exercicio-4/exercicio04-graficos.xlsx
+++ b/exercicio-9/exercicio-4/exercicio04-graficos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24223"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="167" documentId="11_92485C45C1F39E42E268565A893E8C18510380CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD5FFB13-F82E-4E00-9CE9-43BF47EFF37B}"/>
+  <xr:revisionPtr revIDLastSave="372" documentId="11_92485C45C1F39E42E268565A893E8C18510380CC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B16ACF3E-7950-437E-A1B8-3B7380629D20}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>Sem thread (segundos)</t>
   </si>
@@ -36,13 +36,13 @@
     <t>Com Thread (Segundos)</t>
   </si>
   <si>
-    <t>10⁷</t>
+    <t>Ganho (Segundos)</t>
   </si>
   <si>
-    <t>0,457</t>
+    <t>Ganho (%)</t>
   </si>
   <si>
-    <t>0,234</t>
+    <t>10⁷</t>
   </si>
   <si>
     <t>10⁸</t>
@@ -52,6 +52,13 @@
   </si>
   <si>
     <t>10¹0</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em todas os três tipos de operação matemática realizadas houve um ganho de desempenho ao utilizar threads. Sendo que na alternativa C onde foi realizada uma radiciação quadrática de um número aleatório o ganho de desempenho médio foi de 46,38%, na alternativa D onde um número aleatório foi multiplicado por 5 teve um ganho médio de 38,86% e por último na alternativa E onde uma operação mais complexa foi realizada teve um ganho de 54,92%.
+</t>
   </si>
   <si>
     <t>0,446</t>
@@ -76,6 +83,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -113,15 +123,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -186,6 +208,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Alternativa C'!$A$2:$A$5</c:f>
@@ -210,19 +289,19 @@
             <c:numRef>
               <c:f>'Alternativa C'!$B$2:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.45700000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3829</c:v>
+                  <c:v>3.8290000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>37795</c:v>
+                  <c:v>37.795000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>395418</c:v>
+                  <c:v>395.41800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -260,6 +339,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Alternativa C'!$A$2:$A$5</c:f>
@@ -284,19 +420,19 @@
             <c:numRef>
               <c:f>'Alternativa C'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>0</c:v>
+                <c:pt idx="0">
+                  <c:v>0.23400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1732</c:v>
+                  <c:v>1.732</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31923</c:v>
+                  <c:v>31.922999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>134376</c:v>
+                  <c:v>134.376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -393,7 +529,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -574,19 +710,19 @@
             <c:numRef>
               <c:f>'Alternativa D'!$B$2:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4024</c:v>
+                  <c:v>4.024</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39797</c:v>
+                  <c:v>39.796999999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>409378</c:v>
+                  <c:v>409.37799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,19 +784,19 @@
             <c:numRef>
               <c:f>'Alternativa D'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2653</c:v>
+                  <c:v>2.653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28734</c:v>
+                  <c:v>28.734000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>199758</c:v>
+                  <c:v>199.75800000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -757,7 +893,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -938,19 +1074,19 @@
             <c:numRef>
               <c:f>'Alternativa E'!$B$2:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7139</c:v>
+                  <c:v>7.1390000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67239</c:v>
+                  <c:v>67.239000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>702347</c:v>
+                  <c:v>702.34699999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,19 +1148,19 @@
             <c:numRef>
               <c:f>'Alternativa E'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0" formatCode="General">
+                <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2930</c:v>
+                  <c:v>2.93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25584</c:v>
+                  <c:v>25.584</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>282279</c:v>
+                  <c:v>282.279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1121,7 +1257,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2904,16 +3040,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2947,13 +3083,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2988,13 +3124,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>1447800</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3320,71 +3456,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="7">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="D2" s="6">
+        <f>B2-C2</f>
+        <v>0.223</v>
+      </c>
+      <c r="E2" s="8">
+        <f>1-(C2/B2)</f>
+        <v>0.48796498905908092</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>3829</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1732</v>
-      </c>
+      <c r="B3" s="7">
+        <v>3.8290000000000002</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1.732</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D5" si="0">B3-C3</f>
+        <v>2.0970000000000004</v>
+      </c>
+      <c r="E3" s="8">
+        <f>1-(C3/B3)</f>
+        <v>0.54766257508487859</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>37795</v>
-      </c>
-      <c r="C4" s="4">
-        <v>31923</v>
-      </c>
+      <c r="B4" s="7">
+        <v>37.795000000000002</v>
+      </c>
+      <c r="C4" s="7">
+        <v>31.922999999999998</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>5.8720000000000034</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" ref="E3:E5" si="1">1-(C4/B4)</f>
+        <v>0.15536446619923283</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>395418</v>
-      </c>
-      <c r="C5" s="1">
-        <v>134376</v>
-      </c>
+      <c r="B5" s="6">
+        <v>395.41800000000001</v>
+      </c>
+      <c r="C5" s="6">
+        <v>134.376</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>261.04200000000003</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.66016721545301427</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
+        <f>SUM(E2:E5)/4</f>
+        <v>0.46278981144905162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A9:E16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -3392,73 +3650,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3879D83A-5BA3-40C4-8935-4EDAB06E76F0}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6">
+        <f>B2-C2</f>
+        <v>0.189</v>
+      </c>
+      <c r="E2" s="8">
+        <f>1-(C2/B2)</f>
+        <v>0.42376681614349776</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1">
-        <v>4024</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2653</v>
+      <c r="B3" s="6">
+        <v>4.024</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2.653</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D5" si="0">B3-C3</f>
+        <v>1.371</v>
+      </c>
+      <c r="E3" s="8">
+        <f t="shared" ref="E3:E5" si="1">1-(C3/B3)</f>
+        <v>0.34070576540755471</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1">
-        <v>39797</v>
-      </c>
-      <c r="C4" s="1">
-        <v>28734</v>
+      <c r="B4" s="6">
+        <v>39.796999999999997</v>
+      </c>
+      <c r="C4" s="6">
+        <v>28.734000000000002</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>11.062999999999995</v>
+      </c>
+      <c r="E4" s="8">
+        <f t="shared" si="1"/>
+        <v>0.27798577782244882</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1">
-        <v>409378</v>
-      </c>
-      <c r="C5" s="1">
-        <v>199758</v>
+      <c r="B5" s="6">
+        <v>409.37799999999999</v>
+      </c>
+      <c r="C5" s="6">
+        <v>199.75800000000001</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>209.61999999999998</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" si="1"/>
+        <v>0.51204510257024061</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8">
+        <f>SUM(E2:E5)/4</f>
+        <v>0.38862586548593547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3469,73 +3779,124 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83CEA55-503F-4CB5-988E-8F04E7CDFAD6}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:5">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6">
+        <f>B2-C2</f>
+        <v>0.28099999999999997</v>
+      </c>
+      <c r="E2" s="8">
+        <f>1-(C2/B2)</f>
+        <v>0.38973647711511783</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
-        <v>7139</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2930</v>
+      <c r="B3" s="7">
+        <v>7.1390000000000002</v>
+      </c>
+      <c r="C3" s="7">
+        <v>2.93</v>
+      </c>
+      <c r="D3" s="6">
+        <f t="shared" ref="D3:D5" si="0">B3-C3</f>
+        <v>4.2089999999999996</v>
+      </c>
+      <c r="E3" s="8">
+        <f>1-(C3/B3)</f>
+        <v>0.58957837232105337</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4">
-        <v>67239</v>
-      </c>
-      <c r="C4" s="4">
-        <v>25584</v>
+      <c r="B4" s="7">
+        <v>67.239000000000004</v>
+      </c>
+      <c r="C4" s="7">
+        <v>25.584</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" si="0"/>
+        <v>41.655000000000001</v>
+      </c>
+      <c r="E4" s="8">
+        <f>1-(C4/B4)</f>
+        <v>0.61950653638513364</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4">
-        <v>702347</v>
-      </c>
-      <c r="C5" s="4">
-        <v>282279</v>
+      <c r="B5" s="7">
+        <v>702.34699999999998</v>
+      </c>
+      <c r="C5" s="7">
+        <v>282.279</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="0"/>
+        <v>420.06799999999998</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" ref="E3:E5" si="1">1-(C5/B5)</f>
+        <v>0.59809182640489666</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="8">
+        <f>SUM(E2:E5)/4</f>
+        <v>0.54922830305655035</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
